--- a/biology/Zoologie/Eryx_johnii/Eryx_johnii.xlsx
+++ b/biology/Zoologie/Eryx_johnii/Eryx_johnii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eryx johnii est une espèce de serpents de la famille des Boidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eryx johnii est une espèce de serpents de la famille des Boidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Afghanistan, au Pakistan et en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Iran, en Afghanistan, au Pakistan et en Inde.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces serpents mesurent jusqu'à 90 cm.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Eryx johnii johnii (Russell, 1801)
 Eryx johnii persicus Nikolski, 1907</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christoph Samuel John (1747-1813)[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christoph Samuel John (1747-1813).
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Russell, 1801 : A continuation of an account of Indian serpents: containing descriptions and figures from specimens and drawings, transmitted from various parts of India to the hon. Court of Directors of the East Indian Company. London, W. Bulmer and Co., vol. 2, p. 1-53.
 Nikolsky, 1907 "1905" : Reptiles et amphibiens recueillis (part.) M. N. A. Zarudny en Perse en 1903-1904. Annuaire du Musée Zoologique de l’Académie Impériale des Sciences de St. Petersbourg, vol. 10, p. 260-301.</t>
